--- a/samples/sample-ci/analysis/ci-logs.xlsx
+++ b/samples/sample-ci/analysis/ci-logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matts966/private-diary/study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matts966/alphasql/samples/sample-ci/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB59E91-79E6-AB49-B867-B8D80C63D1B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ABE3B2-B108-CD4E-A594-4D0E11D15B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{1C410683-E4EA-1443-97E8-543CE771AAB0}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -432,7 +441,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
                         <a:srgbClr val="002060"/>
                       </a:solidFill>
@@ -474,7 +483,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx2"/>
                       </a:solidFill>
@@ -516,7 +525,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="accent3"/>
                       </a:solidFill>
@@ -558,7 +567,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="accent4"/>
                       </a:solidFill>
@@ -600,7 +609,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="accent5"/>
                       </a:solidFill>
@@ -630,10 +639,38 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.1753653444676405E-3"/>
-                  <c:y val="1.4939309056956116E-2"/>
+                  <c:x val="2.192066805845496E-2"/>
+                  <c:y val="2.8011204481792718E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{01C675FB-20DE-7B4A-818D-5BF482ED94FE}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+                      <a:pPr>
+                        <a:defRPr sz="1200"/>
+                      </a:pPr>
+                      <a:t>[分類名]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -648,7 +685,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="accent6"/>
                       </a:solidFill>
@@ -668,7 +705,10 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-8994-384A-992B-86B40985CFA6}"/>
                 </c:ext>
@@ -690,7 +730,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent1"/>
                         </a:solidFill>
@@ -700,7 +740,7 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
                       <a:t>Cycle error</a:t>
                     </a:r>
                   </a:p>
@@ -720,11 +760,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -766,7 +804,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent2"/>
                         </a:solidFill>
@@ -776,7 +814,7 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
                         <a:solidFill>
                           <a:schemeClr val="accent2"/>
                         </a:solidFill>
@@ -784,14 +822,14 @@
                       <a:t>SQL</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="ja-JP" baseline="0">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent2"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t> Error</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" altLang="ja-JP">
+                    <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200">
                       <a:solidFill>
                         <a:schemeClr val="accent2"/>
                       </a:solidFill>
@@ -813,7 +851,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="accent2"/>
                       </a:solidFill>
@@ -848,6 +886,25 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -871,15 +928,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout>
-                  <c:manualLayout>
-                    <c:x val="8.3507306889351283E-3"/>
-                    <c:y val="7.8431372549019607E-2"/>
-                  </c:manualLayout>
-                </c15:layout>
-                <c15:showDataLabelsRange val="0"/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1926,7 +1975,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/samples/sample-ci/analysis/ci-logs.xlsx
+++ b/samples/sample-ci/analysis/ci-logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matts966/alphasql/samples/sample-ci/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matts966/ghq/github.com/Matts966/alphasql/samples/sample-ci/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ABE3B2-B108-CD4E-A594-4D0E11D15B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC2C52-67F9-5F4E-9E64-FF17034C3490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{1C410683-E4EA-1443-97E8-543CE771AAB0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{1C410683-E4EA-1443-97E8-543CE771AAB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
           <c:strCache>
             <c:ptCount val="2"/>
             <c:pt idx="0">
-              <c:v>827</c:v>
+              <c:v>1445</c:v>
             </c:pt>
             <c:pt idx="1">
               <c:v>RESULTS ON CI</c:v>
@@ -663,7 +663,11 @@
                     <a:fld id="{01C675FB-20DE-7B4A-818D-5BF482ED94FE}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
                       <a:pPr>
-                        <a:defRPr sz="1200"/>
+                        <a:defRPr sz="1200">
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[分類名]</a:t>
                     </a:fld>
@@ -687,7 +691,7 @@
                   <a:pPr>
                     <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent6"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -967,19 +971,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>584</c:v>
+                  <c:v>1106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -1975,7 +1979,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1988,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>584</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1996,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2004,7 +2008,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>96</v>
+        <v>142</v>
+      </c>
+      <c r="C4">
+        <f>SUM(B4:B8)</f>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2012,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2020,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2045,7 +2053,7 @@
       </c>
       <c r="B10">
         <f>SUM(B1:B8)</f>
-        <v>827</v>
+        <v>1445</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
